--- a/uploads/file.xlsx
+++ b/uploads/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\12 KMX Admin ICT &amp; Reporting\ICT\ICT vacancy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE941EB-C74D-4497-9CB7-1EE54E0A1C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678704BC-3981-42D5-9F82-6C452D367019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{CC092572-505A-4493-AB85-28A3F023F3D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CC092572-505A-4493-AB85-28A3F023F3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,12 +442,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -481,7 +481,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -498,7 +498,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -515,7 +515,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -549,7 +549,7 @@
         <v>0.25347222222222221</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -566,7 +566,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -583,7 +583,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -600,7 +600,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -617,7 +617,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0.25347222222222221</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -651,7 +651,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -668,7 +668,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -685,7 +685,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
